--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>792580</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>6240.5k</t>
+          <t>7324</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>742981</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>1571</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2643.4k</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>5762.5k</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>6676.5k</t>
+          <t>8935.7k</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>2133.3k</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>3520.8k</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>2500.5k</t>
+          <t>809861</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>7131.7k</t>
+          <t>6948.7k</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>67</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>7265.7k</t>
+          <t>11134</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>4971.4k</t>
+          <t>6763.5k</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>539134</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2552,12 +2552,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>403324</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2605.4k</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>4799.7k</t>
+          <t>6276</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2289.2k</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>380513</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">

--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>1275.67</t>
+          <t>8291.10</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>712351.34</t>
+          <t>1911.77</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>1278.60</t>
+          <t>15352.90</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1273.72</t>
+          <t>13191.98</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>718989.64</t>
+          <t>1977.06</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>1177143.12</t>
+          <t>320754.56</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>1275.65</t>
+          <t>8158.71</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>1274.31</t>
+          <t>11553.72</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>1276470.46</t>
+          <t>5831.83</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>1266.79</t>
+          <t>29.07</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>1236958.88</t>
+          <t>129147.26</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>1268.21</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>767085.18</t>
+          <t>2012.19</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>1014886.69</t>
+          <t>896051.34</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>1271.97</t>
+          <t>16425.04</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>1273.62</t>
+          <t>12891.88</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>1239.34</t>
+          <t>105534.63</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>1271.04</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>698876.00</t>
+          <t>1916.08</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>1228.37</t>
+          <t>130489.14</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>1272.51</t>
+          <t>15297.58</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
